--- a/P3b_MLP/data/traincgb/Resumen.xlsx
+++ b/P3b_MLP/data/traincgb/Resumen.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$N$1:$O$162</definedName>
     <definedName name="results" localSheetId="0">Hoja1!$A$1:$O$161</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -497,23 +498,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AH162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="3900" topLeftCell="A154"/>
-      <selection activeCell="AH1" sqref="AH1"/>
-      <selection pane="bottomLeft" activeCell="X162" sqref="X162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="6.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="7" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="6.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -16686,7 +16686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -17162,7 +17162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>4.5826388888888903E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>4.5638888888888902E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>5.0597222222222203E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>5.4881944444444497E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>4.66597222222222E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>5.1715277777777797E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>5.04791666666667E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>5.4423611111111103E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>4.8652777777777802E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>4.4826388888888902E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>5.1888888888888901E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>5.5354166666666697E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -19304,7 +19304,7 @@
         <v>4.7402777777777801E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -19423,7 +19423,7 @@
         <v>4.4756944444444398E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -19542,7 +19542,7 @@
         <v>4.8756944444444401E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>5.2631944444444398E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="Q162" s="2">
         <f>SUM(Q2:Q161)</f>
         <v>1.4264722222222224</v>
@@ -19736,6 +19736,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="N1:O162">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0.001"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0.1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>